--- a/src/1-PILKADA ACEH/PILKADA ACEH.xlsx
+++ b/src/1-PILKADA ACEH/PILKADA ACEH.xlsx
@@ -174,6 +174,34 @@
     <sheet name="sheet167" sheetId="169" r:id="rId169"/>
     <sheet name="sheet168" sheetId="170" r:id="rId170"/>
     <sheet name="sheet169" sheetId="171" r:id="rId171"/>
+    <sheet name="sheet170" sheetId="172" r:id="rId172"/>
+    <sheet name="sheet171" sheetId="173" r:id="rId173"/>
+    <sheet name="sheet172" sheetId="174" r:id="rId174"/>
+    <sheet name="sheet173" sheetId="175" r:id="rId175"/>
+    <sheet name="sheet174" sheetId="176" r:id="rId176"/>
+    <sheet name="sheet175" sheetId="177" r:id="rId177"/>
+    <sheet name="sheet176" sheetId="178" r:id="rId178"/>
+    <sheet name="sheet177" sheetId="179" r:id="rId179"/>
+    <sheet name="sheet178" sheetId="180" r:id="rId180"/>
+    <sheet name="sheet179" sheetId="181" r:id="rId181"/>
+    <sheet name="sheet180" sheetId="182" r:id="rId182"/>
+    <sheet name="sheet181" sheetId="183" r:id="rId183"/>
+    <sheet name="sheet182" sheetId="184" r:id="rId184"/>
+    <sheet name="sheet183" sheetId="185" r:id="rId185"/>
+    <sheet name="sheet184" sheetId="186" r:id="rId186"/>
+    <sheet name="sheet185" sheetId="187" r:id="rId187"/>
+    <sheet name="sheet186" sheetId="188" r:id="rId188"/>
+    <sheet name="sheet187" sheetId="189" r:id="rId189"/>
+    <sheet name="sheet188" sheetId="190" r:id="rId190"/>
+    <sheet name="sheet189" sheetId="191" r:id="rId191"/>
+    <sheet name="sheet190" sheetId="192" r:id="rId192"/>
+    <sheet name="sheet191" sheetId="193" r:id="rId193"/>
+    <sheet name="sheet192" sheetId="194" r:id="rId194"/>
+    <sheet name="sheet193" sheetId="195" r:id="rId195"/>
+    <sheet name="sheet194" sheetId="196" r:id="rId196"/>
+    <sheet name="sheet195" sheetId="197" r:id="rId197"/>
+    <sheet name="sheet196" sheetId="198" r:id="rId198"/>
+    <sheet name="sheet197" sheetId="199" r:id="rId199"/>
   </sheets>
 </workbook>
 </file>
@@ -18042,6 +18070,1062 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet172.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Blang Balee</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>89</v>
+      </c>
+      <c r="H2" t="str">
+        <v>85</v>
+      </c>
+      <c r="I2" t="str">
+        <v>95.5 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>84</v>
+      </c>
+      <c r="K2" t="str">
+        <v>1</v>
+      </c>
+      <c r="L2" t="str">
+        <v>85</v>
+      </c>
+      <c r="M2" t="str">
+        <v>45</v>
+      </c>
+      <c r="N2" t="str">
+        <v>1</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2</v>
+      </c>
+      <c r="P2" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>25</v>
+      </c>
+      <c r="R2" t="str">
+        <v>10</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/blang_balee#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet173.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Blang Teungoh</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>170</v>
+      </c>
+      <c r="H2" t="str">
+        <v>162</v>
+      </c>
+      <c r="I2" t="str">
+        <v>95.3 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>158</v>
+      </c>
+      <c r="K2" t="str">
+        <v>4</v>
+      </c>
+      <c r="L2" t="str">
+        <v>162</v>
+      </c>
+      <c r="M2" t="str">
+        <v>21</v>
+      </c>
+      <c r="N2" t="str">
+        <v>17</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2</v>
+      </c>
+      <c r="P2" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>98</v>
+      </c>
+      <c r="R2" t="str">
+        <v>15</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/blang_teungoh#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet174.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Cot Manggie</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>86</v>
+      </c>
+      <c r="H2" t="str">
+        <v>75</v>
+      </c>
+      <c r="I2" t="str">
+        <v>87.2 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>69</v>
+      </c>
+      <c r="K2" t="str">
+        <v>6</v>
+      </c>
+      <c r="L2" t="str">
+        <v>75</v>
+      </c>
+      <c r="M2" t="str">
+        <v>6</v>
+      </c>
+      <c r="N2" t="str">
+        <v>6</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>44</v>
+      </c>
+      <c r="R2" t="str">
+        <v>12</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/cot_manggie#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet175.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Gunong Mata Ie</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>184</v>
+      </c>
+      <c r="H2" t="str">
+        <v>176</v>
+      </c>
+      <c r="I2" t="str">
+        <v>95.7 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>171</v>
+      </c>
+      <c r="K2" t="str">
+        <v>5</v>
+      </c>
+      <c r="L2" t="str">
+        <v>176</v>
+      </c>
+      <c r="M2" t="str">
+        <v>31</v>
+      </c>
+      <c r="N2" t="str">
+        <v>12</v>
+      </c>
+      <c r="O2" t="str">
+        <v>1</v>
+      </c>
+      <c r="P2" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>84</v>
+      </c>
+      <c r="R2" t="str">
+        <v>39</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/gunong_mata_ie#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet176.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Kp. Baro</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>297</v>
+      </c>
+      <c r="H2" t="str">
+        <v>274</v>
+      </c>
+      <c r="I2" t="str">
+        <v>92.3 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>259</v>
+      </c>
+      <c r="K2" t="str">
+        <v>15</v>
+      </c>
+      <c r="L2" t="str">
+        <v>274</v>
+      </c>
+      <c r="M2" t="str">
+        <v>42</v>
+      </c>
+      <c r="N2" t="str">
+        <v>28</v>
+      </c>
+      <c r="O2" t="str">
+        <v>6</v>
+      </c>
+      <c r="P2" t="str">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>132</v>
+      </c>
+      <c r="R2" t="str">
+        <v>36</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/kp._baro#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet177.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Kuala Manyeue</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>230</v>
+      </c>
+      <c r="H2" t="str">
+        <v>201</v>
+      </c>
+      <c r="I2" t="str">
+        <v>87.4 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>197</v>
+      </c>
+      <c r="K2" t="str">
+        <v>4</v>
+      </c>
+      <c r="L2" t="str">
+        <v>201</v>
+      </c>
+      <c r="M2" t="str">
+        <v>22</v>
+      </c>
+      <c r="N2" t="str">
+        <v>17</v>
+      </c>
+      <c r="O2" t="str">
+        <v>11</v>
+      </c>
+      <c r="P2" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>133</v>
+      </c>
+      <c r="R2" t="str">
+        <v>13</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/kuala_manyeue#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet178.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Lek-Lek</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>314</v>
+      </c>
+      <c r="H2" t="str">
+        <v>284</v>
+      </c>
+      <c r="I2" t="str">
+        <v>90.4 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>271</v>
+      </c>
+      <c r="K2" t="str">
+        <v>13</v>
+      </c>
+      <c r="L2" t="str">
+        <v>284</v>
+      </c>
+      <c r="M2" t="str">
+        <v>88</v>
+      </c>
+      <c r="N2" t="str">
+        <v>22</v>
+      </c>
+      <c r="O2" t="str">
+        <v>6</v>
+      </c>
+      <c r="P2" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>115</v>
+      </c>
+      <c r="R2" t="str">
+        <v>35</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/lek-lek#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet179.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Manggie</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>468</v>
+      </c>
+      <c r="H2" t="str">
+        <v>428</v>
+      </c>
+      <c r="I2" t="str">
+        <v>91.5 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>413</v>
+      </c>
+      <c r="K2" t="str">
+        <v>15</v>
+      </c>
+      <c r="L2" t="str">
+        <v>428</v>
+      </c>
+      <c r="M2" t="str">
+        <v>40</v>
+      </c>
+      <c r="N2" t="str">
+        <v>30</v>
+      </c>
+      <c r="O2" t="str">
+        <v>13</v>
+      </c>
+      <c r="P2" t="str">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>194</v>
+      </c>
+      <c r="R2" t="str">
+        <v>110</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/manggie#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
@@ -18170,6 +19254,3273 @@
   </sheetData>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet180.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Mentulang</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>385</v>
+      </c>
+      <c r="H2" t="str">
+        <v>345</v>
+      </c>
+      <c r="I2" t="str">
+        <v>89.6 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>331</v>
+      </c>
+      <c r="K2" t="str">
+        <v>14</v>
+      </c>
+      <c r="L2" t="str">
+        <v>345</v>
+      </c>
+      <c r="M2" t="str">
+        <v>31</v>
+      </c>
+      <c r="N2" t="str">
+        <v>26</v>
+      </c>
+      <c r="O2" t="str">
+        <v>5</v>
+      </c>
+      <c r="P2" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>196</v>
+      </c>
+      <c r="R2" t="str">
+        <v>63</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/mentulang#</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B3" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Mentulang</v>
+      </c>
+      <c r="F3" t="str">
+        <v>TPS 2</v>
+      </c>
+      <c r="G3" t="str">
+        <v>380</v>
+      </c>
+      <c r="H3" t="str">
+        <v>320</v>
+      </c>
+      <c r="I3" t="str">
+        <v>84.2 %</v>
+      </c>
+      <c r="J3" t="str">
+        <v>297</v>
+      </c>
+      <c r="K3" t="str">
+        <v>23</v>
+      </c>
+      <c r="L3" t="str">
+        <v>320</v>
+      </c>
+      <c r="M3" t="str">
+        <v>34</v>
+      </c>
+      <c r="N3" t="str">
+        <v>12</v>
+      </c>
+      <c r="O3" t="str">
+        <v>2</v>
+      </c>
+      <c r="P3" t="str">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>166</v>
+      </c>
+      <c r="R3" t="str">
+        <v>76</v>
+      </c>
+      <c r="S3" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/mentulang#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S3"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet181.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Mugo Cut</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>319</v>
+      </c>
+      <c r="H2" t="str">
+        <v>231</v>
+      </c>
+      <c r="I2" t="str">
+        <v>72.4 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>226</v>
+      </c>
+      <c r="K2" t="str">
+        <v>5</v>
+      </c>
+      <c r="L2" t="str">
+        <v>231</v>
+      </c>
+      <c r="M2" t="str">
+        <v>11</v>
+      </c>
+      <c r="N2" t="str">
+        <v>12</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>152</v>
+      </c>
+      <c r="R2" t="str">
+        <v>50</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/mugo_cut#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet182.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Mugo Rayeuk</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>329</v>
+      </c>
+      <c r="H2" t="str">
+        <v>276</v>
+      </c>
+      <c r="I2" t="str">
+        <v>83.9 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>268</v>
+      </c>
+      <c r="K2" t="str">
+        <v>8</v>
+      </c>
+      <c r="L2" t="str">
+        <v>276</v>
+      </c>
+      <c r="M2" t="str">
+        <v>10</v>
+      </c>
+      <c r="N2" t="str">
+        <v>16</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>180</v>
+      </c>
+      <c r="R2" t="str">
+        <v>59</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/mugo_rayeuk#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet183.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Paya Baro Meuko</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>100</v>
+      </c>
+      <c r="H2" t="str">
+        <v>92</v>
+      </c>
+      <c r="I2" t="str">
+        <v>92.0 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>90</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2</v>
+      </c>
+      <c r="L2" t="str">
+        <v>92</v>
+      </c>
+      <c r="M2" t="str">
+        <v>5</v>
+      </c>
+      <c r="N2" t="str">
+        <v>8</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>72</v>
+      </c>
+      <c r="R2" t="str">
+        <v>4</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/paya_baro_meuko#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet184.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Sibintang</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>199</v>
+      </c>
+      <c r="H2" t="str">
+        <v>164</v>
+      </c>
+      <c r="I2" t="str">
+        <v>82.4 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>160</v>
+      </c>
+      <c r="K2" t="str">
+        <v>4</v>
+      </c>
+      <c r="L2" t="str">
+        <v>164</v>
+      </c>
+      <c r="M2" t="str">
+        <v>22</v>
+      </c>
+      <c r="N2" t="str">
+        <v>20</v>
+      </c>
+      <c r="O2" t="str">
+        <v>4</v>
+      </c>
+      <c r="P2" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>104</v>
+      </c>
+      <c r="R2" t="str">
+        <v>8</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/sibintang#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet185.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Tamping</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>142</v>
+      </c>
+      <c r="H2" t="str">
+        <v>127</v>
+      </c>
+      <c r="I2" t="str">
+        <v>89.4 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>120</v>
+      </c>
+      <c r="K2" t="str">
+        <v>7</v>
+      </c>
+      <c r="L2" t="str">
+        <v>127</v>
+      </c>
+      <c r="M2" t="str">
+        <v>24</v>
+      </c>
+      <c r="N2" t="str">
+        <v>11</v>
+      </c>
+      <c r="O2" t="str">
+        <v>1</v>
+      </c>
+      <c r="P2" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>38</v>
+      </c>
+      <c r="R2" t="str">
+        <v>44</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/tamping#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet186.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Tuwi Buya</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>91</v>
+      </c>
+      <c r="H2" t="str">
+        <v>88</v>
+      </c>
+      <c r="I2" t="str">
+        <v>96.7 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>85</v>
+      </c>
+      <c r="K2" t="str">
+        <v>3</v>
+      </c>
+      <c r="L2" t="str">
+        <v>88</v>
+      </c>
+      <c r="M2" t="str">
+        <v>9</v>
+      </c>
+      <c r="N2" t="str">
+        <v>12</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>57</v>
+      </c>
+      <c r="R2" t="str">
+        <v>5</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/tuwi_buya#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet187.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Panton Reu</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Ujong Raja</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>153</v>
+      </c>
+      <c r="H2" t="str">
+        <v>133</v>
+      </c>
+      <c r="I2" t="str">
+        <v>86.9 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>130</v>
+      </c>
+      <c r="K2" t="str">
+        <v>3</v>
+      </c>
+      <c r="L2" t="str">
+        <v>133</v>
+      </c>
+      <c r="M2" t="str">
+        <v>23</v>
+      </c>
+      <c r="N2" t="str">
+        <v>12</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2</v>
+      </c>
+      <c r="P2" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>88</v>
+      </c>
+      <c r="R2" t="str">
+        <v>4</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/panton_reu/ujong_raja#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet188.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E2" t="str">
+        <v>ALUE RAYA</v>
+      </c>
+      <c r="F2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G2" t="str">
+        <v>374</v>
+      </c>
+      <c r="H2" t="str">
+        <v>327</v>
+      </c>
+      <c r="I2" t="str">
+        <v>87.4 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>316</v>
+      </c>
+      <c r="K2" t="str">
+        <v>11</v>
+      </c>
+      <c r="L2" t="str">
+        <v>327</v>
+      </c>
+      <c r="M2" t="str">
+        <v>121</v>
+      </c>
+      <c r="N2" t="str">
+        <v>18</v>
+      </c>
+      <c r="O2" t="str">
+        <v>4</v>
+      </c>
+      <c r="P2" t="str">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>95</v>
+      </c>
+      <c r="R2" t="str">
+        <v>65</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/alue_raya</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E3" t="str">
+        <v>COT AMUN</v>
+      </c>
+      <c r="F3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G3" t="str">
+        <v>207</v>
+      </c>
+      <c r="H3" t="str">
+        <v>193</v>
+      </c>
+      <c r="I3" t="str">
+        <v>93.2 %</v>
+      </c>
+      <c r="J3" t="str">
+        <v>186</v>
+      </c>
+      <c r="K3" t="str">
+        <v>7</v>
+      </c>
+      <c r="L3" t="str">
+        <v>193</v>
+      </c>
+      <c r="M3" t="str">
+        <v>29</v>
+      </c>
+      <c r="N3" t="str">
+        <v>19</v>
+      </c>
+      <c r="O3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P3" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>96</v>
+      </c>
+      <c r="R3" t="str">
+        <v>32</v>
+      </c>
+      <c r="S3" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_amun</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E4" t="str">
+        <v>COT DARAT</v>
+      </c>
+      <c r="F4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G4" t="str">
+        <v>763</v>
+      </c>
+      <c r="H4" t="str">
+        <v>633</v>
+      </c>
+      <c r="I4" t="str">
+        <v>83.0 %</v>
+      </c>
+      <c r="J4" t="str">
+        <v>617</v>
+      </c>
+      <c r="K4" t="str">
+        <v>16</v>
+      </c>
+      <c r="L4" t="str">
+        <v>633</v>
+      </c>
+      <c r="M4" t="str">
+        <v>91</v>
+      </c>
+      <c r="N4" t="str">
+        <v>44</v>
+      </c>
+      <c r="O4" t="str">
+        <v>6</v>
+      </c>
+      <c r="P4" t="str">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>239</v>
+      </c>
+      <c r="R4" t="str">
+        <v>225</v>
+      </c>
+      <c r="S4" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_darat</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E5" t="str">
+        <v>COT LAMPISE</v>
+      </c>
+      <c r="F5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G5" t="str">
+        <v>195</v>
+      </c>
+      <c r="H5" t="str">
+        <v>174</v>
+      </c>
+      <c r="I5" t="str">
+        <v>89.2 %</v>
+      </c>
+      <c r="J5" t="str">
+        <v>170</v>
+      </c>
+      <c r="K5" t="str">
+        <v>4</v>
+      </c>
+      <c r="L5" t="str">
+        <v>174</v>
+      </c>
+      <c r="M5" t="str">
+        <v>77</v>
+      </c>
+      <c r="N5" t="str">
+        <v>20</v>
+      </c>
+      <c r="O5" t="str">
+        <v>9</v>
+      </c>
+      <c r="P5" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>36</v>
+      </c>
+      <c r="R5" t="str">
+        <v>22</v>
+      </c>
+      <c r="S5" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_lampise</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E6" t="str">
+        <v>COT MESJID</v>
+      </c>
+      <c r="F6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G6" t="str">
+        <v>211</v>
+      </c>
+      <c r="H6" t="str">
+        <v>189</v>
+      </c>
+      <c r="I6" t="str">
+        <v>89.6 %</v>
+      </c>
+      <c r="J6" t="str">
+        <v>178</v>
+      </c>
+      <c r="K6" t="str">
+        <v>11</v>
+      </c>
+      <c r="L6" t="str">
+        <v>189</v>
+      </c>
+      <c r="M6" t="str">
+        <v>49</v>
+      </c>
+      <c r="N6" t="str">
+        <v>6</v>
+      </c>
+      <c r="O6" t="str">
+        <v>0</v>
+      </c>
+      <c r="P6" t="str">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>47</v>
+      </c>
+      <c r="R6" t="str">
+        <v>69</v>
+      </c>
+      <c r="S6" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_mesjid</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E7" t="str">
+        <v>COT PLUH</v>
+      </c>
+      <c r="F7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G7" t="str">
+        <v>427</v>
+      </c>
+      <c r="H7" t="str">
+        <v>370</v>
+      </c>
+      <c r="I7" t="str">
+        <v>86.7 %</v>
+      </c>
+      <c r="J7" t="str">
+        <v>357</v>
+      </c>
+      <c r="K7" t="str">
+        <v>13</v>
+      </c>
+      <c r="L7" t="str">
+        <v>370</v>
+      </c>
+      <c r="M7" t="str">
+        <v>40</v>
+      </c>
+      <c r="N7" t="str">
+        <v>18</v>
+      </c>
+      <c r="O7" t="str">
+        <v>2</v>
+      </c>
+      <c r="P7" t="str">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>213</v>
+      </c>
+      <c r="R7" t="str">
+        <v>77</v>
+      </c>
+      <c r="S7" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_pluh</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E8" t="str">
+        <v>COT SEULAMAT</v>
+      </c>
+      <c r="F8" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G8" t="str">
+        <v>345</v>
+      </c>
+      <c r="H8" t="str">
+        <v>314</v>
+      </c>
+      <c r="I8" t="str">
+        <v>91.0 %</v>
+      </c>
+      <c r="J8" t="str">
+        <v>301</v>
+      </c>
+      <c r="K8" t="str">
+        <v>13</v>
+      </c>
+      <c r="L8" t="str">
+        <v>314</v>
+      </c>
+      <c r="M8" t="str">
+        <v>91</v>
+      </c>
+      <c r="N8" t="str">
+        <v>18</v>
+      </c>
+      <c r="O8" t="str">
+        <v>1</v>
+      </c>
+      <c r="P8" t="str">
+        <v>8</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>136</v>
+      </c>
+      <c r="R8" t="str">
+        <v>47</v>
+      </c>
+      <c r="S8" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_seulamat</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E9" t="str">
+        <v>COT SEUMEURENG</v>
+      </c>
+      <c r="F9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G9" t="str">
+        <v>831</v>
+      </c>
+      <c r="H9" t="str">
+        <v>692</v>
+      </c>
+      <c r="I9" t="str">
+        <v>83.3 %</v>
+      </c>
+      <c r="J9" t="str">
+        <v>682</v>
+      </c>
+      <c r="K9" t="str">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <v>692</v>
+      </c>
+      <c r="M9" t="str">
+        <v>200</v>
+      </c>
+      <c r="N9" t="str">
+        <v>31</v>
+      </c>
+      <c r="O9" t="str">
+        <v>22</v>
+      </c>
+      <c r="P9" t="str">
+        <v>18</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>140</v>
+      </c>
+      <c r="R9" t="str">
+        <v>271</v>
+      </c>
+      <c r="S9" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_seumeureng</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E10" t="str">
+        <v>DEUAH</v>
+      </c>
+      <c r="F10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G10" t="str">
+        <v>315</v>
+      </c>
+      <c r="H10" t="str">
+        <v>270</v>
+      </c>
+      <c r="I10" t="str">
+        <v>85.7 %</v>
+      </c>
+      <c r="J10" t="str">
+        <v>264</v>
+      </c>
+      <c r="K10" t="str">
+        <v>6</v>
+      </c>
+      <c r="L10" t="str">
+        <v>270</v>
+      </c>
+      <c r="M10" t="str">
+        <v>73</v>
+      </c>
+      <c r="N10" t="str">
+        <v>21</v>
+      </c>
+      <c r="O10" t="str">
+        <v>3</v>
+      </c>
+      <c r="P10" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>89</v>
+      </c>
+      <c r="R10" t="str">
+        <v>74</v>
+      </c>
+      <c r="S10" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/deuah</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E11" t="str">
+        <v>GAMPONG COT</v>
+      </c>
+      <c r="F11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G11" t="str">
+        <v>265</v>
+      </c>
+      <c r="H11" t="str">
+        <v>249</v>
+      </c>
+      <c r="I11" t="str">
+        <v>94.0 %</v>
+      </c>
+      <c r="J11" t="str">
+        <v>241</v>
+      </c>
+      <c r="K11" t="str">
+        <v>8</v>
+      </c>
+      <c r="L11" t="str">
+        <v>249</v>
+      </c>
+      <c r="M11" t="str">
+        <v>82</v>
+      </c>
+      <c r="N11" t="str">
+        <v>5</v>
+      </c>
+      <c r="O11" t="str">
+        <v>4</v>
+      </c>
+      <c r="P11" t="str">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>84</v>
+      </c>
+      <c r="R11" t="str">
+        <v>57</v>
+      </c>
+      <c r="S11" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/gampong_cot</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E12" t="str">
+        <v>GAMPONG LADANG</v>
+      </c>
+      <c r="F12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G12" t="str">
+        <v>86</v>
+      </c>
+      <c r="H12" t="str">
+        <v>74</v>
+      </c>
+      <c r="I12" t="str">
+        <v>86.0 %</v>
+      </c>
+      <c r="J12" t="str">
+        <v>73</v>
+      </c>
+      <c r="K12" t="str">
+        <v>1</v>
+      </c>
+      <c r="L12" t="str">
+        <v>74</v>
+      </c>
+      <c r="M12" t="str">
+        <v>16</v>
+      </c>
+      <c r="N12" t="str">
+        <v>5</v>
+      </c>
+      <c r="O12" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>19</v>
+      </c>
+      <c r="R12" t="str">
+        <v>28</v>
+      </c>
+      <c r="S12" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/gampong_ladang</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E13" t="str">
+        <v>GAMPONG TEUNGOH</v>
+      </c>
+      <c r="F13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G13" t="str">
+        <v>402</v>
+      </c>
+      <c r="H13" t="str">
+        <v>352</v>
+      </c>
+      <c r="I13" t="str">
+        <v>87.6 %</v>
+      </c>
+      <c r="J13" t="str">
+        <v>339</v>
+      </c>
+      <c r="K13" t="str">
+        <v>13</v>
+      </c>
+      <c r="L13" t="str">
+        <v>352</v>
+      </c>
+      <c r="M13" t="str">
+        <v>85</v>
+      </c>
+      <c r="N13" t="str">
+        <v>14</v>
+      </c>
+      <c r="O13" t="str">
+        <v>3</v>
+      </c>
+      <c r="P13" t="str">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>134</v>
+      </c>
+      <c r="R13" t="str">
+        <v>95</v>
+      </c>
+      <c r="S13" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/gampong_teungoh</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E14" t="str">
+        <v>KEUREUSENG</v>
+      </c>
+      <c r="F14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G14" t="str">
+        <v>277</v>
+      </c>
+      <c r="H14" t="str">
+        <v>251</v>
+      </c>
+      <c r="I14" t="str">
+        <v>90.6 %</v>
+      </c>
+      <c r="J14" t="str">
+        <v>242</v>
+      </c>
+      <c r="K14" t="str">
+        <v>9</v>
+      </c>
+      <c r="L14" t="str">
+        <v>251</v>
+      </c>
+      <c r="M14" t="str">
+        <v>25</v>
+      </c>
+      <c r="N14" t="str">
+        <v>7</v>
+      </c>
+      <c r="O14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14" t="str">
+        <v>17</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>174</v>
+      </c>
+      <c r="R14" t="str">
+        <v>19</v>
+      </c>
+      <c r="S14" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/keureuseng</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E15" t="str">
+        <v>KRUENG TINGGAI</v>
+      </c>
+      <c r="F15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G15" t="str">
+        <v>296</v>
+      </c>
+      <c r="H15" t="str">
+        <v>261</v>
+      </c>
+      <c r="I15" t="str">
+        <v>88.2 %</v>
+      </c>
+      <c r="J15" t="str">
+        <v>248</v>
+      </c>
+      <c r="K15" t="str">
+        <v>13</v>
+      </c>
+      <c r="L15" t="str">
+        <v>261</v>
+      </c>
+      <c r="M15" t="str">
+        <v>37</v>
+      </c>
+      <c r="N15" t="str">
+        <v>10</v>
+      </c>
+      <c r="O15" t="str">
+        <v>4</v>
+      </c>
+      <c r="P15" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>84</v>
+      </c>
+      <c r="R15" t="str">
+        <v>107</v>
+      </c>
+      <c r="S15" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/krueng_tinggai</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E16" t="str">
+        <v>KUALA BUBON</v>
+      </c>
+      <c r="F16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G16" t="str">
+        <v>274</v>
+      </c>
+      <c r="H16" t="str">
+        <v>220</v>
+      </c>
+      <c r="I16" t="str">
+        <v>80.3 %</v>
+      </c>
+      <c r="J16" t="str">
+        <v>210</v>
+      </c>
+      <c r="K16" t="str">
+        <v>10</v>
+      </c>
+      <c r="L16" t="str">
+        <v>220</v>
+      </c>
+      <c r="M16" t="str">
+        <v>58</v>
+      </c>
+      <c r="N16" t="str">
+        <v>8</v>
+      </c>
+      <c r="O16" t="str">
+        <v>3</v>
+      </c>
+      <c r="P16" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>95</v>
+      </c>
+      <c r="R16" t="str">
+        <v>43</v>
+      </c>
+      <c r="S16" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/kuala_bubon</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E17" t="str">
+        <v>LEUBOK</v>
+      </c>
+      <c r="F17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G17" t="str">
+        <v>215</v>
+      </c>
+      <c r="H17" t="str">
+        <v>180</v>
+      </c>
+      <c r="I17" t="str">
+        <v>83.7 %</v>
+      </c>
+      <c r="J17" t="str">
+        <v>170</v>
+      </c>
+      <c r="K17" t="str">
+        <v>10</v>
+      </c>
+      <c r="L17" t="str">
+        <v>180</v>
+      </c>
+      <c r="M17" t="str">
+        <v>32</v>
+      </c>
+      <c r="N17" t="str">
+        <v>12</v>
+      </c>
+      <c r="O17" t="str">
+        <v>0</v>
+      </c>
+      <c r="P17" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>88</v>
+      </c>
+      <c r="R17" t="str">
+        <v>35</v>
+      </c>
+      <c r="S17" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/leubok</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E18" t="str">
+        <v>LEUKEUN</v>
+      </c>
+      <c r="F18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G18" t="str">
+        <v>321</v>
+      </c>
+      <c r="H18" t="str">
+        <v>278</v>
+      </c>
+      <c r="I18" t="str">
+        <v>86.6 %</v>
+      </c>
+      <c r="J18" t="str">
+        <v>264</v>
+      </c>
+      <c r="K18" t="str">
+        <v>14</v>
+      </c>
+      <c r="L18" t="str">
+        <v>278</v>
+      </c>
+      <c r="M18" t="str">
+        <v>25</v>
+      </c>
+      <c r="N18" t="str">
+        <v>30</v>
+      </c>
+      <c r="O18" t="str">
+        <v>3</v>
+      </c>
+      <c r="P18" t="str">
+        <v>7</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>131</v>
+      </c>
+      <c r="R18" t="str">
+        <v>68</v>
+      </c>
+      <c r="S18" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/leukeun</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E19" t="str">
+        <v>LHOK BUBON</v>
+      </c>
+      <c r="F19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G19" t="str">
+        <v>144</v>
+      </c>
+      <c r="H19" t="str">
+        <v>134</v>
+      </c>
+      <c r="I19" t="str">
+        <v>93.1 %</v>
+      </c>
+      <c r="J19" t="str">
+        <v>132</v>
+      </c>
+      <c r="K19" t="str">
+        <v>2</v>
+      </c>
+      <c r="L19" t="str">
+        <v>134</v>
+      </c>
+      <c r="M19" t="str">
+        <v>28</v>
+      </c>
+      <c r="N19" t="str">
+        <v>3</v>
+      </c>
+      <c r="O19" t="str">
+        <v>2</v>
+      </c>
+      <c r="P19" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>33</v>
+      </c>
+      <c r="R19" t="str">
+        <v>64</v>
+      </c>
+      <c r="S19" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/lhok_bubon</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E20" t="str">
+        <v>MESJID BARO</v>
+      </c>
+      <c r="F20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G20" t="str">
+        <v>299</v>
+      </c>
+      <c r="H20" t="str">
+        <v>276</v>
+      </c>
+      <c r="I20" t="str">
+        <v>92.3 %</v>
+      </c>
+      <c r="J20" t="str">
+        <v>265</v>
+      </c>
+      <c r="K20" t="str">
+        <v>11</v>
+      </c>
+      <c r="L20" t="str">
+        <v>276</v>
+      </c>
+      <c r="M20" t="str">
+        <v>48</v>
+      </c>
+      <c r="N20" t="str">
+        <v>18</v>
+      </c>
+      <c r="O20" t="str">
+        <v>3</v>
+      </c>
+      <c r="P20" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>140</v>
+      </c>
+      <c r="R20" t="str">
+        <v>51</v>
+      </c>
+      <c r="S20" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/mesjid_baro</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E21" t="str">
+        <v>PANGE</v>
+      </c>
+      <c r="F21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G21" t="str">
+        <v>177</v>
+      </c>
+      <c r="H21" t="str">
+        <v>159</v>
+      </c>
+      <c r="I21" t="str">
+        <v>89.8 %</v>
+      </c>
+      <c r="J21" t="str">
+        <v>153</v>
+      </c>
+      <c r="K21" t="str">
+        <v>6</v>
+      </c>
+      <c r="L21" t="str">
+        <v>159</v>
+      </c>
+      <c r="M21" t="str">
+        <v>28</v>
+      </c>
+      <c r="N21" t="str">
+        <v>11</v>
+      </c>
+      <c r="O21" t="str">
+        <v>0</v>
+      </c>
+      <c r="P21" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>85</v>
+      </c>
+      <c r="R21" t="str">
+        <v>23</v>
+      </c>
+      <c r="S21" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/pange</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E22" t="str">
+        <v>PAYA LUMPAT</v>
+      </c>
+      <c r="F22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G22" t="str">
+        <v>610</v>
+      </c>
+      <c r="H22" t="str">
+        <v>520</v>
+      </c>
+      <c r="I22" t="str">
+        <v>85.2 %</v>
+      </c>
+      <c r="J22" t="str">
+        <v>497</v>
+      </c>
+      <c r="K22" t="str">
+        <v>23</v>
+      </c>
+      <c r="L22" t="str">
+        <v>520</v>
+      </c>
+      <c r="M22" t="str">
+        <v>95</v>
+      </c>
+      <c r="N22" t="str">
+        <v>21</v>
+      </c>
+      <c r="O22" t="str">
+        <v>5</v>
+      </c>
+      <c r="P22" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>172</v>
+      </c>
+      <c r="R22" t="str">
+        <v>194</v>
+      </c>
+      <c r="S22" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/paya_lumpat</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E23" t="str">
+        <v>PINEM</v>
+      </c>
+      <c r="F23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G23" t="str">
+        <v>321</v>
+      </c>
+      <c r="H23" t="str">
+        <v>269</v>
+      </c>
+      <c r="I23" t="str">
+        <v>83.8 %</v>
+      </c>
+      <c r="J23" t="str">
+        <v>266</v>
+      </c>
+      <c r="K23" t="str">
+        <v>3</v>
+      </c>
+      <c r="L23" t="str">
+        <v>269</v>
+      </c>
+      <c r="M23" t="str">
+        <v>109</v>
+      </c>
+      <c r="N23" t="str">
+        <v>23</v>
+      </c>
+      <c r="O23" t="str">
+        <v>1</v>
+      </c>
+      <c r="P23" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>49</v>
+      </c>
+      <c r="R23" t="str">
+        <v>80</v>
+      </c>
+      <c r="S23" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/pinem</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E24" t="str">
+        <v>PUCOK LUENG</v>
+      </c>
+      <c r="F24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G24" t="str">
+        <v>368</v>
+      </c>
+      <c r="H24" t="str">
+        <v>311</v>
+      </c>
+      <c r="I24" t="str">
+        <v>84.5 %</v>
+      </c>
+      <c r="J24" t="str">
+        <v>295</v>
+      </c>
+      <c r="K24" t="str">
+        <v>16</v>
+      </c>
+      <c r="L24" t="str">
+        <v>311</v>
+      </c>
+      <c r="M24" t="str">
+        <v>93</v>
+      </c>
+      <c r="N24" t="str">
+        <v>22</v>
+      </c>
+      <c r="O24" t="str">
+        <v>7</v>
+      </c>
+      <c r="P24" t="str">
+        <v>9</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>118</v>
+      </c>
+      <c r="R24" t="str">
+        <v>46</v>
+      </c>
+      <c r="S24" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/pucok_lueng</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E25" t="str">
+        <v>RANGKILEH</v>
+      </c>
+      <c r="F25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G25" t="str">
+        <v>65</v>
+      </c>
+      <c r="H25" t="str">
+        <v>62</v>
+      </c>
+      <c r="I25" t="str">
+        <v>95.4 %</v>
+      </c>
+      <c r="J25" t="str">
+        <v>60</v>
+      </c>
+      <c r="K25" t="str">
+        <v>2</v>
+      </c>
+      <c r="L25" t="str">
+        <v>62</v>
+      </c>
+      <c r="M25" t="str">
+        <v>28</v>
+      </c>
+      <c r="N25" t="str">
+        <v>2</v>
+      </c>
+      <c r="O25" t="str">
+        <v>1</v>
+      </c>
+      <c r="P25" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>10</v>
+      </c>
+      <c r="R25" t="str">
+        <v>17</v>
+      </c>
+      <c r="S25" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/rangkileh</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E26" t="str">
+        <v>REUSAK</v>
+      </c>
+      <c r="F26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G26" t="str">
+        <v>569</v>
+      </c>
+      <c r="H26" t="str">
+        <v>519</v>
+      </c>
+      <c r="I26" t="str">
+        <v>91.2 %</v>
+      </c>
+      <c r="J26" t="str">
+        <v>509</v>
+      </c>
+      <c r="K26" t="str">
+        <v>10</v>
+      </c>
+      <c r="L26" t="str">
+        <v>519</v>
+      </c>
+      <c r="M26" t="str">
+        <v>127</v>
+      </c>
+      <c r="N26" t="str">
+        <v>33</v>
+      </c>
+      <c r="O26" t="str">
+        <v>4</v>
+      </c>
+      <c r="P26" t="str">
+        <v>15</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>137</v>
+      </c>
+      <c r="R26" t="str">
+        <v>193</v>
+      </c>
+      <c r="S26" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/reusak</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E27" t="str">
+        <v>SUAK GEUDEUBANG</v>
+      </c>
+      <c r="F27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G27" t="str">
+        <v>252</v>
+      </c>
+      <c r="H27" t="str">
+        <v>210</v>
+      </c>
+      <c r="I27" t="str">
+        <v>83.3 %</v>
+      </c>
+      <c r="J27" t="str">
+        <v>195</v>
+      </c>
+      <c r="K27" t="str">
+        <v>15</v>
+      </c>
+      <c r="L27" t="str">
+        <v>210</v>
+      </c>
+      <c r="M27" t="str">
+        <v>21</v>
+      </c>
+      <c r="N27" t="str">
+        <v>24</v>
+      </c>
+      <c r="O27" t="str">
+        <v>4</v>
+      </c>
+      <c r="P27" t="str">
+        <v>8</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>108</v>
+      </c>
+      <c r="R27" t="str">
+        <v>30</v>
+      </c>
+      <c r="S27" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/suak_geudeubang</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E28" t="str">
+        <v>SUAK PANDAN</v>
+      </c>
+      <c r="F28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G28" t="str">
+        <v>373</v>
+      </c>
+      <c r="H28" t="str">
+        <v>326</v>
+      </c>
+      <c r="I28" t="str">
+        <v>87.4 %</v>
+      </c>
+      <c r="J28" t="str">
+        <v>314</v>
+      </c>
+      <c r="K28" t="str">
+        <v>12</v>
+      </c>
+      <c r="L28" t="str">
+        <v>326</v>
+      </c>
+      <c r="M28" t="str">
+        <v>65</v>
+      </c>
+      <c r="N28" t="str">
+        <v>18</v>
+      </c>
+      <c r="O28" t="str">
+        <v>2</v>
+      </c>
+      <c r="P28" t="str">
+        <v>14</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>125</v>
+      </c>
+      <c r="R28" t="str">
+        <v>90</v>
+      </c>
+      <c r="S28" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/suak_pandan</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E29" t="str">
+        <v>SUAK PANTE BREUH</v>
+      </c>
+      <c r="F29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G29" t="str">
+        <v>355</v>
+      </c>
+      <c r="H29" t="str">
+        <v>303</v>
+      </c>
+      <c r="I29" t="str">
+        <v>85.4 %</v>
+      </c>
+      <c r="J29" t="str">
+        <v>292</v>
+      </c>
+      <c r="K29" t="str">
+        <v>11</v>
+      </c>
+      <c r="L29" t="str">
+        <v>303</v>
+      </c>
+      <c r="M29" t="str">
+        <v>46</v>
+      </c>
+      <c r="N29" t="str">
+        <v>23</v>
+      </c>
+      <c r="O29" t="str">
+        <v>3</v>
+      </c>
+      <c r="P29" t="str">
+        <v>12</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>133</v>
+      </c>
+      <c r="R29" t="str">
+        <v>75</v>
+      </c>
+      <c r="S29" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/suak_pante_breuh</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E30" t="str">
+        <v>SUAK SEUKEE</v>
+      </c>
+      <c r="F30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G30" t="str">
+        <v>319</v>
+      </c>
+      <c r="H30" t="str">
+        <v>265</v>
+      </c>
+      <c r="I30" t="str">
+        <v>83.1 %</v>
+      </c>
+      <c r="J30" t="str">
+        <v>257</v>
+      </c>
+      <c r="K30" t="str">
+        <v>8</v>
+      </c>
+      <c r="L30" t="str">
+        <v>265</v>
+      </c>
+      <c r="M30" t="str">
+        <v>44</v>
+      </c>
+      <c r="N30" t="str">
+        <v>22</v>
+      </c>
+      <c r="O30" t="str">
+        <v>2</v>
+      </c>
+      <c r="P30" t="str">
+        <v>20</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>124</v>
+      </c>
+      <c r="R30" t="str">
+        <v>45</v>
+      </c>
+      <c r="S30" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/suak_seukee</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E31" t="str">
+        <v>SUAK SEUMASEH</v>
+      </c>
+      <c r="F31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G31" t="str">
+        <v>202</v>
+      </c>
+      <c r="H31" t="str">
+        <v>202</v>
+      </c>
+      <c r="I31" t="str">
+        <v>100.0 %</v>
+      </c>
+      <c r="J31" t="str">
+        <v>192</v>
+      </c>
+      <c r="K31" t="str">
+        <v>10</v>
+      </c>
+      <c r="L31" t="str">
+        <v>202</v>
+      </c>
+      <c r="M31" t="str">
+        <v>15</v>
+      </c>
+      <c r="N31" t="str">
+        <v>19</v>
+      </c>
+      <c r="O31" t="str">
+        <v>2</v>
+      </c>
+      <c r="P31" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>111</v>
+      </c>
+      <c r="R31" t="str">
+        <v>35</v>
+      </c>
+      <c r="S31" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/suak_seumaseh</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E32" t="str">
+        <v>SUAK TIMAH</v>
+      </c>
+      <c r="F32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G32" t="str">
+        <v>815</v>
+      </c>
+      <c r="H32" t="str">
+        <v>697</v>
+      </c>
+      <c r="I32" t="str">
+        <v>85.5 %</v>
+      </c>
+      <c r="J32" t="str">
+        <v>669</v>
+      </c>
+      <c r="K32" t="str">
+        <v>28</v>
+      </c>
+      <c r="L32" t="str">
+        <v>697</v>
+      </c>
+      <c r="M32" t="str">
+        <v>132</v>
+      </c>
+      <c r="N32" t="str">
+        <v>35</v>
+      </c>
+      <c r="O32" t="str">
+        <v>4</v>
+      </c>
+      <c r="P32" t="str">
+        <v>14</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>192</v>
+      </c>
+      <c r="R32" t="str">
+        <v>292</v>
+      </c>
+      <c r="S32" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/suak_timah</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E33" t="str">
+        <v>UJONG NGA</v>
+      </c>
+      <c r="F33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G33" t="str">
+        <v>251</v>
+      </c>
+      <c r="H33" t="str">
+        <v>225</v>
+      </c>
+      <c r="I33" t="str">
+        <v>89.6 %</v>
+      </c>
+      <c r="J33" t="str">
+        <v>218</v>
+      </c>
+      <c r="K33" t="str">
+        <v>7</v>
+      </c>
+      <c r="L33" t="str">
+        <v>225</v>
+      </c>
+      <c r="M33" t="str">
+        <v>54</v>
+      </c>
+      <c r="N33" t="str">
+        <v>11</v>
+      </c>
+      <c r="O33" t="str">
+        <v>2</v>
+      </c>
+      <c r="P33" t="str">
+        <v>8</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>93</v>
+      </c>
+      <c r="R33" t="str">
+        <v>50</v>
+      </c>
+      <c r="S33" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/ujong_nga</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S33"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet189.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Alue Raya</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>188</v>
+      </c>
+      <c r="H2" t="str">
+        <v>162</v>
+      </c>
+      <c r="I2" t="str">
+        <v>86.2 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>156</v>
+      </c>
+      <c r="K2" t="str">
+        <v>6</v>
+      </c>
+      <c r="L2" t="str">
+        <v>162</v>
+      </c>
+      <c r="M2" t="str">
+        <v>52</v>
+      </c>
+      <c r="N2" t="str">
+        <v>10</v>
+      </c>
+      <c r="O2" t="str">
+        <v>3</v>
+      </c>
+      <c r="P2" t="str">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>43</v>
+      </c>
+      <c r="R2" t="str">
+        <v>41</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/alue_raya#</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B3" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Alue Raya</v>
+      </c>
+      <c r="F3" t="str">
+        <v>TPS 2</v>
+      </c>
+      <c r="G3" t="str">
+        <v>186</v>
+      </c>
+      <c r="H3" t="str">
+        <v>165</v>
+      </c>
+      <c r="I3" t="str">
+        <v>88.7 %</v>
+      </c>
+      <c r="J3" t="str">
+        <v>160</v>
+      </c>
+      <c r="K3" t="str">
+        <v>5</v>
+      </c>
+      <c r="L3" t="str">
+        <v>165</v>
+      </c>
+      <c r="M3" t="str">
+        <v>69</v>
+      </c>
+      <c r="N3" t="str">
+        <v>8</v>
+      </c>
+      <c r="O3" t="str">
+        <v>1</v>
+      </c>
+      <c r="P3" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>52</v>
+      </c>
+      <c r="R3" t="str">
+        <v>24</v>
+      </c>
+      <c r="S3" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/alue_raya#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -18297,6 +22648,1444 @@
       </c>
       <c r="S2" t="str">
         <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/arongan_lambalek/peulanteu_lb#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet190.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Cot Amun</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>207</v>
+      </c>
+      <c r="H2" t="str">
+        <v>193</v>
+      </c>
+      <c r="I2" t="str">
+        <v>93.2 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>186</v>
+      </c>
+      <c r="K2" t="str">
+        <v>7</v>
+      </c>
+      <c r="L2" t="str">
+        <v>193</v>
+      </c>
+      <c r="M2" t="str">
+        <v>29</v>
+      </c>
+      <c r="N2" t="str">
+        <v>19</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>96</v>
+      </c>
+      <c r="R2" t="str">
+        <v>32</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_amun#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet191.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Cot Darat</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>383</v>
+      </c>
+      <c r="H2" t="str">
+        <v>312</v>
+      </c>
+      <c r="I2" t="str">
+        <v>81.5 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>305</v>
+      </c>
+      <c r="K2" t="str">
+        <v>7</v>
+      </c>
+      <c r="L2" t="str">
+        <v>312</v>
+      </c>
+      <c r="M2" t="str">
+        <v>54</v>
+      </c>
+      <c r="N2" t="str">
+        <v>16</v>
+      </c>
+      <c r="O2" t="str">
+        <v>1</v>
+      </c>
+      <c r="P2" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>123</v>
+      </c>
+      <c r="R2" t="str">
+        <v>105</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_darat#</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B3" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Cot Darat</v>
+      </c>
+      <c r="F3" t="str">
+        <v>TPS 2</v>
+      </c>
+      <c r="G3" t="str">
+        <v>380</v>
+      </c>
+      <c r="H3" t="str">
+        <v>321</v>
+      </c>
+      <c r="I3" t="str">
+        <v>84.5 %</v>
+      </c>
+      <c r="J3" t="str">
+        <v>312</v>
+      </c>
+      <c r="K3" t="str">
+        <v>9</v>
+      </c>
+      <c r="L3" t="str">
+        <v>321</v>
+      </c>
+      <c r="M3" t="str">
+        <v>37</v>
+      </c>
+      <c r="N3" t="str">
+        <v>28</v>
+      </c>
+      <c r="O3" t="str">
+        <v>5</v>
+      </c>
+      <c r="P3" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>116</v>
+      </c>
+      <c r="R3" t="str">
+        <v>120</v>
+      </c>
+      <c r="S3" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_darat#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S3"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet192.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Cot Lampise</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>195</v>
+      </c>
+      <c r="H2" t="str">
+        <v>174</v>
+      </c>
+      <c r="I2" t="str">
+        <v>89.2 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>170</v>
+      </c>
+      <c r="K2" t="str">
+        <v>4</v>
+      </c>
+      <c r="L2" t="str">
+        <v>174</v>
+      </c>
+      <c r="M2" t="str">
+        <v>77</v>
+      </c>
+      <c r="N2" t="str">
+        <v>20</v>
+      </c>
+      <c r="O2" t="str">
+        <v>9</v>
+      </c>
+      <c r="P2" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>36</v>
+      </c>
+      <c r="R2" t="str">
+        <v>22</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_lampise#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet193.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Cot Mesjid</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>211</v>
+      </c>
+      <c r="H2" t="str">
+        <v>189</v>
+      </c>
+      <c r="I2" t="str">
+        <v>89.6 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>178</v>
+      </c>
+      <c r="K2" t="str">
+        <v>11</v>
+      </c>
+      <c r="L2" t="str">
+        <v>189</v>
+      </c>
+      <c r="M2" t="str">
+        <v>49</v>
+      </c>
+      <c r="N2" t="str">
+        <v>6</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>47</v>
+      </c>
+      <c r="R2" t="str">
+        <v>69</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_mesjid#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet194.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Cot Pluh</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>427</v>
+      </c>
+      <c r="H2" t="str">
+        <v>370</v>
+      </c>
+      <c r="I2" t="str">
+        <v>86.7 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>357</v>
+      </c>
+      <c r="K2" t="str">
+        <v>13</v>
+      </c>
+      <c r="L2" t="str">
+        <v>370</v>
+      </c>
+      <c r="M2" t="str">
+        <v>40</v>
+      </c>
+      <c r="N2" t="str">
+        <v>18</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2</v>
+      </c>
+      <c r="P2" t="str">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>213</v>
+      </c>
+      <c r="R2" t="str">
+        <v>77</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_pluh#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet195.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Cot Seulamat</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>345</v>
+      </c>
+      <c r="H2" t="str">
+        <v>314</v>
+      </c>
+      <c r="I2" t="str">
+        <v>91.0 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>301</v>
+      </c>
+      <c r="K2" t="str">
+        <v>13</v>
+      </c>
+      <c r="L2" t="str">
+        <v>314</v>
+      </c>
+      <c r="M2" t="str">
+        <v>91</v>
+      </c>
+      <c r="N2" t="str">
+        <v>18</v>
+      </c>
+      <c r="O2" t="str">
+        <v>1</v>
+      </c>
+      <c r="P2" t="str">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>136</v>
+      </c>
+      <c r="R2" t="str">
+        <v>47</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_seulamat#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet196.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Cot Seumeureng</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>465</v>
+      </c>
+      <c r="H2" t="str">
+        <v>377</v>
+      </c>
+      <c r="I2" t="str">
+        <v>81.1 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>373</v>
+      </c>
+      <c r="K2" t="str">
+        <v>4</v>
+      </c>
+      <c r="L2" t="str">
+        <v>377</v>
+      </c>
+      <c r="M2" t="str">
+        <v>109</v>
+      </c>
+      <c r="N2" t="str">
+        <v>16</v>
+      </c>
+      <c r="O2" t="str">
+        <v>10</v>
+      </c>
+      <c r="P2" t="str">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>73</v>
+      </c>
+      <c r="R2" t="str">
+        <v>151</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_seumeureng#</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B3" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Cot Seumeureng</v>
+      </c>
+      <c r="F3" t="str">
+        <v>TPS 2</v>
+      </c>
+      <c r="G3" t="str">
+        <v>366</v>
+      </c>
+      <c r="H3" t="str">
+        <v>315</v>
+      </c>
+      <c r="I3" t="str">
+        <v>86.1 %</v>
+      </c>
+      <c r="J3" t="str">
+        <v>309</v>
+      </c>
+      <c r="K3" t="str">
+        <v>6</v>
+      </c>
+      <c r="L3" t="str">
+        <v>315</v>
+      </c>
+      <c r="M3" t="str">
+        <v>91</v>
+      </c>
+      <c r="N3" t="str">
+        <v>15</v>
+      </c>
+      <c r="O3" t="str">
+        <v>12</v>
+      </c>
+      <c r="P3" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>67</v>
+      </c>
+      <c r="R3" t="str">
+        <v>120</v>
+      </c>
+      <c r="S3" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/cot_seumeureng#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S3"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet197.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Deuah</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>315</v>
+      </c>
+      <c r="H2" t="str">
+        <v>270</v>
+      </c>
+      <c r="I2" t="str">
+        <v>85.7 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>264</v>
+      </c>
+      <c r="K2" t="str">
+        <v>6</v>
+      </c>
+      <c r="L2" t="str">
+        <v>270</v>
+      </c>
+      <c r="M2" t="str">
+        <v>73</v>
+      </c>
+      <c r="N2" t="str">
+        <v>21</v>
+      </c>
+      <c r="O2" t="str">
+        <v>3</v>
+      </c>
+      <c r="P2" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>89</v>
+      </c>
+      <c r="R2" t="str">
+        <v>74</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/deuah#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet198.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Gampong Cot</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>265</v>
+      </c>
+      <c r="H2" t="str">
+        <v>249</v>
+      </c>
+      <c r="I2" t="str">
+        <v>94.0 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>241</v>
+      </c>
+      <c r="K2" t="str">
+        <v>8</v>
+      </c>
+      <c r="L2" t="str">
+        <v>249</v>
+      </c>
+      <c r="M2" t="str">
+        <v>82</v>
+      </c>
+      <c r="N2" t="str">
+        <v>5</v>
+      </c>
+      <c r="O2" t="str">
+        <v>4</v>
+      </c>
+      <c r="P2" t="str">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>84</v>
+      </c>
+      <c r="R2" t="str">
+        <v>57</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/gampong_cot#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet199.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Samatiga</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Gampong Ladang</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>86</v>
+      </c>
+      <c r="H2" t="str">
+        <v>74</v>
+      </c>
+      <c r="I2" t="str">
+        <v>86.0 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>73</v>
+      </c>
+      <c r="K2" t="str">
+        <v>1</v>
+      </c>
+      <c r="L2" t="str">
+        <v>74</v>
+      </c>
+      <c r="M2" t="str">
+        <v>16</v>
+      </c>
+      <c r="N2" t="str">
+        <v>5</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>19</v>
+      </c>
+      <c r="R2" t="str">
+        <v>28</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/samatiga/gampong_ladang#</v>
       </c>
     </row>
   </sheetData>

--- a/src/1-PILKADA ACEH/PILKADA ACEH.xlsx
+++ b/src/1-PILKADA ACEH/PILKADA ACEH.xlsx
@@ -311,6 +311,33 @@
     <sheet name="sheet304" sheetId="306" r:id="rId306"/>
     <sheet name="sheet305" sheetId="307" r:id="rId307"/>
     <sheet name="sheet306" sheetId="308" r:id="rId308"/>
+    <sheet name="sheet307" sheetId="309" r:id="rId309"/>
+    <sheet name="sheet308" sheetId="310" r:id="rId310"/>
+    <sheet name="sheet309" sheetId="311" r:id="rId311"/>
+    <sheet name="sheet310" sheetId="312" r:id="rId312"/>
+    <sheet name="sheet311" sheetId="313" r:id="rId313"/>
+    <sheet name="sheet312" sheetId="314" r:id="rId314"/>
+    <sheet name="sheet313" sheetId="315" r:id="rId315"/>
+    <sheet name="sheet314" sheetId="316" r:id="rId316"/>
+    <sheet name="sheet315" sheetId="317" r:id="rId317"/>
+    <sheet name="sheet316" sheetId="318" r:id="rId318"/>
+    <sheet name="sheet317" sheetId="319" r:id="rId319"/>
+    <sheet name="sheet318" sheetId="320" r:id="rId320"/>
+    <sheet name="sheet319" sheetId="321" r:id="rId321"/>
+    <sheet name="sheet320" sheetId="322" r:id="rId322"/>
+    <sheet name="sheet321" sheetId="323" r:id="rId323"/>
+    <sheet name="sheet322" sheetId="324" r:id="rId324"/>
+    <sheet name="sheet323" sheetId="325" r:id="rId325"/>
+    <sheet name="sheet324" sheetId="326" r:id="rId326"/>
+    <sheet name="sheet325" sheetId="327" r:id="rId327"/>
+    <sheet name="sheet326" sheetId="328" r:id="rId328"/>
+    <sheet name="sheet327" sheetId="329" r:id="rId329"/>
+    <sheet name="sheet328" sheetId="330" r:id="rId330"/>
+    <sheet name="sheet329" sheetId="331" r:id="rId331"/>
+    <sheet name="sheet330" sheetId="332" r:id="rId332"/>
+    <sheet name="sheet331" sheetId="333" r:id="rId333"/>
+    <sheet name="sheet332" sheetId="334" r:id="rId334"/>
+    <sheet name="sheet333" sheetId="335" r:id="rId335"/>
   </sheets>
 </workbook>
 </file>
@@ -47742,6 +47769,1613 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet309.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>ALUE BILIE</v>
+      </c>
+      <c r="F2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G2" t="str">
+        <v>46</v>
+      </c>
+      <c r="H2" t="str">
+        <v>46</v>
+      </c>
+      <c r="I2" t="str">
+        <v>100.0 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>43</v>
+      </c>
+      <c r="K2" t="str">
+        <v>3</v>
+      </c>
+      <c r="L2" t="str">
+        <v>46</v>
+      </c>
+      <c r="M2" t="str">
+        <v>2</v>
+      </c>
+      <c r="N2" t="str">
+        <v>6</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>25</v>
+      </c>
+      <c r="R2" t="str">
+        <v>7</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/alue_bilie</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E3" t="str">
+        <v>ALUE EUMPEUK</v>
+      </c>
+      <c r="F3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G3" t="str">
+        <v>66</v>
+      </c>
+      <c r="H3" t="str">
+        <v>59</v>
+      </c>
+      <c r="I3" t="str">
+        <v>89.4 %</v>
+      </c>
+      <c r="J3" t="str">
+        <v>59</v>
+      </c>
+      <c r="K3" t="str">
+        <v>0</v>
+      </c>
+      <c r="L3" t="str">
+        <v>59</v>
+      </c>
+      <c r="M3" t="str">
+        <v>18</v>
+      </c>
+      <c r="N3" t="str">
+        <v>3</v>
+      </c>
+      <c r="O3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P3" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>32</v>
+      </c>
+      <c r="R3" t="str">
+        <v>3</v>
+      </c>
+      <c r="S3" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/alue_eumpeuk</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E4" t="str">
+        <v>ALUE KUYUN</v>
+      </c>
+      <c r="F4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G4" t="str">
+        <v>456</v>
+      </c>
+      <c r="H4" t="str">
+        <v>366</v>
+      </c>
+      <c r="I4" t="str">
+        <v>80.3 %</v>
+      </c>
+      <c r="J4" t="str">
+        <v>343</v>
+      </c>
+      <c r="K4" t="str">
+        <v>23</v>
+      </c>
+      <c r="L4" t="str">
+        <v>366</v>
+      </c>
+      <c r="M4" t="str">
+        <v>21</v>
+      </c>
+      <c r="N4" t="str">
+        <v>34</v>
+      </c>
+      <c r="O4" t="str">
+        <v>7</v>
+      </c>
+      <c r="P4" t="str">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>172</v>
+      </c>
+      <c r="R4" t="str">
+        <v>90</v>
+      </c>
+      <c r="S4" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/alue_kuyun</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E5" t="str">
+        <v>ALUE MEUGANDA</v>
+      </c>
+      <c r="F5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G5" t="str">
+        <v>61</v>
+      </c>
+      <c r="H5" t="str">
+        <v>61</v>
+      </c>
+      <c r="I5" t="str">
+        <v>100.0 %</v>
+      </c>
+      <c r="J5" t="str">
+        <v>61</v>
+      </c>
+      <c r="K5" t="str">
+        <v>0</v>
+      </c>
+      <c r="L5" t="str">
+        <v>61</v>
+      </c>
+      <c r="M5" t="str">
+        <v>11</v>
+      </c>
+      <c r="N5" t="str">
+        <v>2</v>
+      </c>
+      <c r="O5" t="str">
+        <v>1</v>
+      </c>
+      <c r="P5" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>33</v>
+      </c>
+      <c r="R5" t="str">
+        <v>4</v>
+      </c>
+      <c r="S5" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/alue_meuganda</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E6" t="str">
+        <v>ALUE SEURALEN</v>
+      </c>
+      <c r="F6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G6" t="str">
+        <v>30</v>
+      </c>
+      <c r="H6" t="str">
+        <v>30</v>
+      </c>
+      <c r="I6" t="str">
+        <v>100.0 %</v>
+      </c>
+      <c r="J6" t="str">
+        <v>30</v>
+      </c>
+      <c r="K6" t="str">
+        <v>0</v>
+      </c>
+      <c r="L6" t="str">
+        <v>30</v>
+      </c>
+      <c r="M6" t="str">
+        <v>3</v>
+      </c>
+      <c r="N6" t="str">
+        <v>8</v>
+      </c>
+      <c r="O6" t="str">
+        <v>0</v>
+      </c>
+      <c r="P6" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>15</v>
+      </c>
+      <c r="R6" t="str">
+        <v>0</v>
+      </c>
+      <c r="S6" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/alue_seuralen</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E7" t="str">
+        <v>BLANG DALAM</v>
+      </c>
+      <c r="F7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G7" t="str">
+        <v>154</v>
+      </c>
+      <c r="H7" t="str">
+        <v>136</v>
+      </c>
+      <c r="I7" t="str">
+        <v>88.3 %</v>
+      </c>
+      <c r="J7" t="str">
+        <v>129</v>
+      </c>
+      <c r="K7" t="str">
+        <v>7</v>
+      </c>
+      <c r="L7" t="str">
+        <v>136</v>
+      </c>
+      <c r="M7" t="str">
+        <v>5</v>
+      </c>
+      <c r="N7" t="str">
+        <v>20</v>
+      </c>
+      <c r="O7" t="str">
+        <v>1</v>
+      </c>
+      <c r="P7" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>91</v>
+      </c>
+      <c r="R7" t="str">
+        <v>9</v>
+      </c>
+      <c r="S7" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/blang_dalam</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E8" t="str">
+        <v>BLANG LUAH KB</v>
+      </c>
+      <c r="F8" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G8" t="str">
+        <v>103</v>
+      </c>
+      <c r="H8" t="str">
+        <v>102</v>
+      </c>
+      <c r="I8" t="str">
+        <v>99.0 %</v>
+      </c>
+      <c r="J8" t="str">
+        <v>100</v>
+      </c>
+      <c r="K8" t="str">
+        <v>2</v>
+      </c>
+      <c r="L8" t="str">
+        <v>102</v>
+      </c>
+      <c r="M8" t="str">
+        <v>4</v>
+      </c>
+      <c r="N8" t="str">
+        <v>1</v>
+      </c>
+      <c r="O8" t="str">
+        <v>1</v>
+      </c>
+      <c r="P8" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>82</v>
+      </c>
+      <c r="R8" t="str">
+        <v>6</v>
+      </c>
+      <c r="S8" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/blang_luah_kb</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E9" t="str">
+        <v>BLANG MAKMU</v>
+      </c>
+      <c r="F9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G9" t="str">
+        <v>68</v>
+      </c>
+      <c r="H9" t="str">
+        <v>68</v>
+      </c>
+      <c r="I9" t="str">
+        <v>100.0 %</v>
+      </c>
+      <c r="J9" t="str">
+        <v>64</v>
+      </c>
+      <c r="K9" t="str">
+        <v>2</v>
+      </c>
+      <c r="L9" t="str">
+        <v>66</v>
+      </c>
+      <c r="M9" t="str">
+        <v>0</v>
+      </c>
+      <c r="N9" t="str">
+        <v>4</v>
+      </c>
+      <c r="O9" t="str">
+        <v>1</v>
+      </c>
+      <c r="P9" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>51</v>
+      </c>
+      <c r="R9" t="str">
+        <v>7</v>
+      </c>
+      <c r="S9" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/blang_makmu</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E10" t="str">
+        <v>BUKET MEUGAJAH</v>
+      </c>
+      <c r="F10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G10" t="str">
+        <v>168</v>
+      </c>
+      <c r="H10" t="str">
+        <v>145</v>
+      </c>
+      <c r="I10" t="str">
+        <v>86.3 %</v>
+      </c>
+      <c r="J10" t="str">
+        <v>142</v>
+      </c>
+      <c r="K10" t="str">
+        <v>3</v>
+      </c>
+      <c r="L10" t="str">
+        <v>145</v>
+      </c>
+      <c r="M10" t="str">
+        <v>3</v>
+      </c>
+      <c r="N10" t="str">
+        <v>19</v>
+      </c>
+      <c r="O10" t="str">
+        <v>2</v>
+      </c>
+      <c r="P10" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>105</v>
+      </c>
+      <c r="R10" t="str">
+        <v>7</v>
+      </c>
+      <c r="S10" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/buket_meugajah</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E11" t="str">
+        <v>COT PUNTI</v>
+      </c>
+      <c r="F11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G11" t="str">
+        <v>151</v>
+      </c>
+      <c r="H11" t="str">
+        <v>130</v>
+      </c>
+      <c r="I11" t="str">
+        <v>86.1 %</v>
+      </c>
+      <c r="J11" t="str">
+        <v>128</v>
+      </c>
+      <c r="K11" t="str">
+        <v>2</v>
+      </c>
+      <c r="L11" t="str">
+        <v>130</v>
+      </c>
+      <c r="M11" t="str">
+        <v>11</v>
+      </c>
+      <c r="N11" t="str">
+        <v>7</v>
+      </c>
+      <c r="O11" t="str">
+        <v>2</v>
+      </c>
+      <c r="P11" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>100</v>
+      </c>
+      <c r="R11" t="str">
+        <v>7</v>
+      </c>
+      <c r="S11" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/cot_punti</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E12" t="str">
+        <v>GAMPONG BARO KB</v>
+      </c>
+      <c r="F12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G12" t="str">
+        <v>61</v>
+      </c>
+      <c r="H12" t="str">
+        <v>56</v>
+      </c>
+      <c r="I12" t="str">
+        <v>91.8 %</v>
+      </c>
+      <c r="J12" t="str">
+        <v>56</v>
+      </c>
+      <c r="K12" t="str">
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
+        <v>56</v>
+      </c>
+      <c r="M12" t="str">
+        <v>1</v>
+      </c>
+      <c r="N12" t="str">
+        <v>1</v>
+      </c>
+      <c r="O12" t="str">
+        <v>2</v>
+      </c>
+      <c r="P12" t="str">
+        <v>12</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>40</v>
+      </c>
+      <c r="R12" t="str">
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/gampong_baro_kb</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E13" t="str">
+        <v>GAMPONG BARO WT</v>
+      </c>
+      <c r="F13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G13" t="str">
+        <v>69</v>
+      </c>
+      <c r="H13" t="str">
+        <v>64</v>
+      </c>
+      <c r="I13" t="str">
+        <v>92.8 %</v>
+      </c>
+      <c r="J13" t="str">
+        <v>64</v>
+      </c>
+      <c r="K13" t="str">
+        <v>0</v>
+      </c>
+      <c r="L13" t="str">
+        <v>64</v>
+      </c>
+      <c r="M13" t="str">
+        <v>1</v>
+      </c>
+      <c r="N13" t="str">
+        <v>0</v>
+      </c>
+      <c r="O13" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>62</v>
+      </c>
+      <c r="R13" t="str">
+        <v>1</v>
+      </c>
+      <c r="S13" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/gampong_baro_wt</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E14" t="str">
+        <v>GUNONG PANYANG</v>
+      </c>
+      <c r="F14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G14" t="str">
+        <v>40</v>
+      </c>
+      <c r="H14" t="str">
+        <v>37</v>
+      </c>
+      <c r="I14" t="str">
+        <v>92.5 %</v>
+      </c>
+      <c r="J14" t="str">
+        <v>37</v>
+      </c>
+      <c r="K14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L14" t="str">
+        <v>37</v>
+      </c>
+      <c r="M14" t="str">
+        <v>2</v>
+      </c>
+      <c r="N14" t="str">
+        <v>3</v>
+      </c>
+      <c r="O14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>28</v>
+      </c>
+      <c r="R14" t="str">
+        <v>2</v>
+      </c>
+      <c r="S14" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/gunong_panyang</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E15" t="str">
+        <v>KUBU CAPANG</v>
+      </c>
+      <c r="F15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G15" t="str">
+        <v>107</v>
+      </c>
+      <c r="H15" t="str">
+        <v>99</v>
+      </c>
+      <c r="I15" t="str">
+        <v>92.5 %</v>
+      </c>
+      <c r="J15" t="str">
+        <v>97</v>
+      </c>
+      <c r="K15" t="str">
+        <v>2</v>
+      </c>
+      <c r="L15" t="str">
+        <v>99</v>
+      </c>
+      <c r="M15" t="str">
+        <v>5</v>
+      </c>
+      <c r="N15" t="str">
+        <v>3</v>
+      </c>
+      <c r="O15" t="str">
+        <v>0</v>
+      </c>
+      <c r="P15" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>73</v>
+      </c>
+      <c r="R15" t="str">
+        <v>14</v>
+      </c>
+      <c r="S15" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/kubu_capang</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E16" t="str">
+        <v>LEUBOK PANYANG</v>
+      </c>
+      <c r="F16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G16" t="str">
+        <v>104</v>
+      </c>
+      <c r="H16" t="str">
+        <v>92</v>
+      </c>
+      <c r="I16" t="str">
+        <v>88.5 %</v>
+      </c>
+      <c r="J16" t="str">
+        <v>91</v>
+      </c>
+      <c r="K16" t="str">
+        <v>1</v>
+      </c>
+      <c r="L16" t="str">
+        <v>92</v>
+      </c>
+      <c r="M16" t="str">
+        <v>3</v>
+      </c>
+      <c r="N16" t="str">
+        <v>6</v>
+      </c>
+      <c r="O16" t="str">
+        <v>1</v>
+      </c>
+      <c r="P16" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>66</v>
+      </c>
+      <c r="R16" t="str">
+        <v>12</v>
+      </c>
+      <c r="S16" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/leubok_panyang</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E17" t="str">
+        <v>PASI ARA WT</v>
+      </c>
+      <c r="F17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G17" t="str">
+        <v>170</v>
+      </c>
+      <c r="H17" t="str">
+        <v>146</v>
+      </c>
+      <c r="I17" t="str">
+        <v>85.9 %</v>
+      </c>
+      <c r="J17" t="str">
+        <v>138</v>
+      </c>
+      <c r="K17" t="str">
+        <v>8</v>
+      </c>
+      <c r="L17" t="str">
+        <v>146</v>
+      </c>
+      <c r="M17" t="str">
+        <v>7</v>
+      </c>
+      <c r="N17" t="str">
+        <v>18</v>
+      </c>
+      <c r="O17" t="str">
+        <v>2</v>
+      </c>
+      <c r="P17" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>93</v>
+      </c>
+      <c r="R17" t="str">
+        <v>14</v>
+      </c>
+      <c r="S17" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/pasi_ara_wt</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E18" t="str">
+        <v>PASI JANENG</v>
+      </c>
+      <c r="F18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G18" t="str">
+        <v>377</v>
+      </c>
+      <c r="H18" t="str">
+        <v>344</v>
+      </c>
+      <c r="I18" t="str">
+        <v>91.2 %</v>
+      </c>
+      <c r="J18" t="str">
+        <v>334</v>
+      </c>
+      <c r="K18" t="str">
+        <v>10</v>
+      </c>
+      <c r="L18" t="str">
+        <v>344</v>
+      </c>
+      <c r="M18" t="str">
+        <v>36</v>
+      </c>
+      <c r="N18" t="str">
+        <v>33</v>
+      </c>
+      <c r="O18" t="str">
+        <v>1</v>
+      </c>
+      <c r="P18" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>223</v>
+      </c>
+      <c r="R18" t="str">
+        <v>40</v>
+      </c>
+      <c r="S18" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/pasi_janeng</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E19" t="str">
+        <v>PAYA BARO</v>
+      </c>
+      <c r="F19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G19" t="str">
+        <v>245</v>
+      </c>
+      <c r="H19" t="str">
+        <v>227</v>
+      </c>
+      <c r="I19" t="str">
+        <v>92.7 %</v>
+      </c>
+      <c r="J19" t="str">
+        <v>225</v>
+      </c>
+      <c r="K19" t="str">
+        <v>2</v>
+      </c>
+      <c r="L19" t="str">
+        <v>227</v>
+      </c>
+      <c r="M19" t="str">
+        <v>43</v>
+      </c>
+      <c r="N19" t="str">
+        <v>37</v>
+      </c>
+      <c r="O19" t="str">
+        <v>1</v>
+      </c>
+      <c r="P19" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>67</v>
+      </c>
+      <c r="R19" t="str">
+        <v>77</v>
+      </c>
+      <c r="S19" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/paya_baro</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E20" t="str">
+        <v>PAYA MEUGEUNDRANG</v>
+      </c>
+      <c r="F20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G20" t="str">
+        <v>130</v>
+      </c>
+      <c r="H20" t="str">
+        <v>115</v>
+      </c>
+      <c r="I20" t="str">
+        <v>88.5 %</v>
+      </c>
+      <c r="J20" t="str">
+        <v>114</v>
+      </c>
+      <c r="K20" t="str">
+        <v>1</v>
+      </c>
+      <c r="L20" t="str">
+        <v>115</v>
+      </c>
+      <c r="M20" t="str">
+        <v>7</v>
+      </c>
+      <c r="N20" t="str">
+        <v>14</v>
+      </c>
+      <c r="O20" t="str">
+        <v>1</v>
+      </c>
+      <c r="P20" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>70</v>
+      </c>
+      <c r="R20" t="str">
+        <v>19</v>
+      </c>
+      <c r="S20" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/paya_meugeundrang</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E21" t="str">
+        <v>RAMBONG</v>
+      </c>
+      <c r="F21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G21" t="str">
+        <v>121</v>
+      </c>
+      <c r="H21" t="str">
+        <v>116</v>
+      </c>
+      <c r="I21" t="str">
+        <v>95.9 %</v>
+      </c>
+      <c r="J21" t="str">
+        <v>112</v>
+      </c>
+      <c r="K21" t="str">
+        <v>4</v>
+      </c>
+      <c r="L21" t="str">
+        <v>116</v>
+      </c>
+      <c r="M21" t="str">
+        <v>11</v>
+      </c>
+      <c r="N21" t="str">
+        <v>10</v>
+      </c>
+      <c r="O21" t="str">
+        <v>3</v>
+      </c>
+      <c r="P21" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>69</v>
+      </c>
+      <c r="R21" t="str">
+        <v>16</v>
+      </c>
+      <c r="S21" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/rambong</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E22" t="str">
+        <v>RAMBONG PINTO</v>
+      </c>
+      <c r="F22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G22" t="str">
+        <v>60</v>
+      </c>
+      <c r="H22" t="str">
+        <v>58</v>
+      </c>
+      <c r="I22" t="str">
+        <v>96.7 %</v>
+      </c>
+      <c r="J22" t="str">
+        <v>56</v>
+      </c>
+      <c r="K22" t="str">
+        <v>2</v>
+      </c>
+      <c r="L22" t="str">
+        <v>58</v>
+      </c>
+      <c r="M22" t="str">
+        <v>3</v>
+      </c>
+      <c r="N22" t="str">
+        <v>1</v>
+      </c>
+      <c r="O22" t="str">
+        <v>2</v>
+      </c>
+      <c r="P22" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>36</v>
+      </c>
+      <c r="R22" t="str">
+        <v>13</v>
+      </c>
+      <c r="S22" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/rambong_pinto</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E23" t="str">
+        <v>SEUNEUBOK DALAM</v>
+      </c>
+      <c r="F23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G23" t="str">
+        <v>42</v>
+      </c>
+      <c r="H23" t="str">
+        <v>42</v>
+      </c>
+      <c r="I23" t="str">
+        <v>100.0 %</v>
+      </c>
+      <c r="J23" t="str">
+        <v>42</v>
+      </c>
+      <c r="K23" t="str">
+        <v>0</v>
+      </c>
+      <c r="L23" t="str">
+        <v>42</v>
+      </c>
+      <c r="M23" t="str">
+        <v>9</v>
+      </c>
+      <c r="N23" t="str">
+        <v>2</v>
+      </c>
+      <c r="O23" t="str">
+        <v>1</v>
+      </c>
+      <c r="P23" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>27</v>
+      </c>
+      <c r="R23" t="str">
+        <v>0</v>
+      </c>
+      <c r="S23" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/seuneubok_dalam</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E24" t="str">
+        <v>SEURADEUK</v>
+      </c>
+      <c r="F24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G24" t="str">
+        <v>208</v>
+      </c>
+      <c r="H24" t="str">
+        <v>183</v>
+      </c>
+      <c r="I24" t="str">
+        <v>88.0 %</v>
+      </c>
+      <c r="J24" t="str">
+        <v>182</v>
+      </c>
+      <c r="K24" t="str">
+        <v>1</v>
+      </c>
+      <c r="L24" t="str">
+        <v>183</v>
+      </c>
+      <c r="M24" t="str">
+        <v>14</v>
+      </c>
+      <c r="N24" t="str">
+        <v>22</v>
+      </c>
+      <c r="O24" t="str">
+        <v>4</v>
+      </c>
+      <c r="P24" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>65</v>
+      </c>
+      <c r="R24" t="str">
+        <v>75</v>
+      </c>
+      <c r="S24" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/seuradeuk</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E25" t="str">
+        <v>TANGKEH</v>
+      </c>
+      <c r="F25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G25" t="str">
+        <v>300</v>
+      </c>
+      <c r="H25" t="str">
+        <v>256</v>
+      </c>
+      <c r="I25" t="str">
+        <v>85.3 %</v>
+      </c>
+      <c r="J25" t="str">
+        <v>244</v>
+      </c>
+      <c r="K25" t="str">
+        <v>12</v>
+      </c>
+      <c r="L25" t="str">
+        <v>256</v>
+      </c>
+      <c r="M25" t="str">
+        <v>22</v>
+      </c>
+      <c r="N25" t="str">
+        <v>26</v>
+      </c>
+      <c r="O25" t="str">
+        <v>2</v>
+      </c>
+      <c r="P25" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>159</v>
+      </c>
+      <c r="R25" t="str">
+        <v>31</v>
+      </c>
+      <c r="S25" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/tangkeh</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E26" t="str">
+        <v>TEUMIKET RANOM</v>
+      </c>
+      <c r="F26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G26" t="str">
+        <v>134</v>
+      </c>
+      <c r="H26" t="str">
+        <v>124</v>
+      </c>
+      <c r="I26" t="str">
+        <v>92.5 %</v>
+      </c>
+      <c r="J26" t="str">
+        <v>122</v>
+      </c>
+      <c r="K26" t="str">
+        <v>2</v>
+      </c>
+      <c r="L26" t="str">
+        <v>124</v>
+      </c>
+      <c r="M26" t="str">
+        <v>3</v>
+      </c>
+      <c r="N26" t="str">
+        <v>15</v>
+      </c>
+      <c r="O26" t="str">
+        <v>5</v>
+      </c>
+      <c r="P26" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>82</v>
+      </c>
+      <c r="R26" t="str">
+        <v>15</v>
+      </c>
+      <c r="S26" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/teumiket_ranom</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E27" t="str">
+        <v>TUWI EUMPEUK</v>
+      </c>
+      <c r="F27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G27" t="str">
+        <v>87</v>
+      </c>
+      <c r="H27" t="str">
+        <v>82</v>
+      </c>
+      <c r="I27" t="str">
+        <v>94.3 %</v>
+      </c>
+      <c r="J27" t="str">
+        <v>81</v>
+      </c>
+      <c r="K27" t="str">
+        <v>1</v>
+      </c>
+      <c r="L27" t="str">
+        <v>82</v>
+      </c>
+      <c r="M27" t="str">
+        <v>8</v>
+      </c>
+      <c r="N27" t="str">
+        <v>5</v>
+      </c>
+      <c r="O27" t="str">
+        <v>2</v>
+      </c>
+      <c r="P27" t="str">
+        <v>12</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>50</v>
+      </c>
+      <c r="R27" t="str">
+        <v>4</v>
+      </c>
+      <c r="S27" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/tuwi_eumpeuk</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S27"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S18"/>
@@ -48814,6 +50448,1326 @@
   </sheetData>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:S18"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet310.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Alue Bilie</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>46</v>
+      </c>
+      <c r="H2" t="str">
+        <v>46</v>
+      </c>
+      <c r="I2" t="str">
+        <v>100.0 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>43</v>
+      </c>
+      <c r="K2" t="str">
+        <v>3</v>
+      </c>
+      <c r="L2" t="str">
+        <v>46</v>
+      </c>
+      <c r="M2" t="str">
+        <v>2</v>
+      </c>
+      <c r="N2" t="str">
+        <v>6</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>25</v>
+      </c>
+      <c r="R2" t="str">
+        <v>7</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/alue_bilie#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet311.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Alue Eumpeuk</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>66</v>
+      </c>
+      <c r="H2" t="str">
+        <v>59</v>
+      </c>
+      <c r="I2" t="str">
+        <v>89.4 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>59</v>
+      </c>
+      <c r="K2" t="str">
+        <v>0</v>
+      </c>
+      <c r="L2" t="str">
+        <v>59</v>
+      </c>
+      <c r="M2" t="str">
+        <v>18</v>
+      </c>
+      <c r="N2" t="str">
+        <v>3</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>32</v>
+      </c>
+      <c r="R2" t="str">
+        <v>3</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/alue_eumpeuk#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet312.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Alue Kuyun</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>456</v>
+      </c>
+      <c r="H2" t="str">
+        <v>366</v>
+      </c>
+      <c r="I2" t="str">
+        <v>80.3 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>343</v>
+      </c>
+      <c r="K2" t="str">
+        <v>23</v>
+      </c>
+      <c r="L2" t="str">
+        <v>366</v>
+      </c>
+      <c r="M2" t="str">
+        <v>21</v>
+      </c>
+      <c r="N2" t="str">
+        <v>34</v>
+      </c>
+      <c r="O2" t="str">
+        <v>7</v>
+      </c>
+      <c r="P2" t="str">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>172</v>
+      </c>
+      <c r="R2" t="str">
+        <v>90</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/alue_kuyun#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet313.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Alue Meuganda</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>61</v>
+      </c>
+      <c r="H2" t="str">
+        <v>61</v>
+      </c>
+      <c r="I2" t="str">
+        <v>100.0 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>61</v>
+      </c>
+      <c r="K2" t="str">
+        <v>0</v>
+      </c>
+      <c r="L2" t="str">
+        <v>61</v>
+      </c>
+      <c r="M2" t="str">
+        <v>11</v>
+      </c>
+      <c r="N2" t="str">
+        <v>2</v>
+      </c>
+      <c r="O2" t="str">
+        <v>1</v>
+      </c>
+      <c r="P2" t="str">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>33</v>
+      </c>
+      <c r="R2" t="str">
+        <v>4</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/alue_meuganda#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet314.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Alue Seuralen</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>30</v>
+      </c>
+      <c r="H2" t="str">
+        <v>30</v>
+      </c>
+      <c r="I2" t="str">
+        <v>100.0 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>30</v>
+      </c>
+      <c r="K2" t="str">
+        <v>0</v>
+      </c>
+      <c r="L2" t="str">
+        <v>30</v>
+      </c>
+      <c r="M2" t="str">
+        <v>3</v>
+      </c>
+      <c r="N2" t="str">
+        <v>8</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>15</v>
+      </c>
+      <c r="R2" t="str">
+        <v>0</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/alue_seuralen#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet315.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Blang Dalam</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>154</v>
+      </c>
+      <c r="H2" t="str">
+        <v>136</v>
+      </c>
+      <c r="I2" t="str">
+        <v>88.3 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>129</v>
+      </c>
+      <c r="K2" t="str">
+        <v>7</v>
+      </c>
+      <c r="L2" t="str">
+        <v>136</v>
+      </c>
+      <c r="M2" t="str">
+        <v>5</v>
+      </c>
+      <c r="N2" t="str">
+        <v>20</v>
+      </c>
+      <c r="O2" t="str">
+        <v>1</v>
+      </c>
+      <c r="P2" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>91</v>
+      </c>
+      <c r="R2" t="str">
+        <v>9</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/blang_dalam#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet316.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Blang Luah Kb</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>103</v>
+      </c>
+      <c r="H2" t="str">
+        <v>102</v>
+      </c>
+      <c r="I2" t="str">
+        <v>99.0 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>100</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2</v>
+      </c>
+      <c r="L2" t="str">
+        <v>102</v>
+      </c>
+      <c r="M2" t="str">
+        <v>4</v>
+      </c>
+      <c r="N2" t="str">
+        <v>1</v>
+      </c>
+      <c r="O2" t="str">
+        <v>1</v>
+      </c>
+      <c r="P2" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>82</v>
+      </c>
+      <c r="R2" t="str">
+        <v>6</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/blang_luah_kb#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet317.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Blang Makmu</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>68</v>
+      </c>
+      <c r="H2" t="str">
+        <v>68</v>
+      </c>
+      <c r="I2" t="str">
+        <v>100.0 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>64</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2</v>
+      </c>
+      <c r="L2" t="str">
+        <v>66</v>
+      </c>
+      <c r="M2" t="str">
+        <v>0</v>
+      </c>
+      <c r="N2" t="str">
+        <v>4</v>
+      </c>
+      <c r="O2" t="str">
+        <v>1</v>
+      </c>
+      <c r="P2" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>51</v>
+      </c>
+      <c r="R2" t="str">
+        <v>7</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/blang_makmu#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet318.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Buket Meugajah</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>168</v>
+      </c>
+      <c r="H2" t="str">
+        <v>145</v>
+      </c>
+      <c r="I2" t="str">
+        <v>86.3 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>142</v>
+      </c>
+      <c r="K2" t="str">
+        <v>3</v>
+      </c>
+      <c r="L2" t="str">
+        <v>145</v>
+      </c>
+      <c r="M2" t="str">
+        <v>3</v>
+      </c>
+      <c r="N2" t="str">
+        <v>19</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2</v>
+      </c>
+      <c r="P2" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>105</v>
+      </c>
+      <c r="R2" t="str">
+        <v>7</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/buket_meugajah#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet319.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Cot Punti</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>151</v>
+      </c>
+      <c r="H2" t="str">
+        <v>130</v>
+      </c>
+      <c r="I2" t="str">
+        <v>86.1 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>128</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2</v>
+      </c>
+      <c r="L2" t="str">
+        <v>130</v>
+      </c>
+      <c r="M2" t="str">
+        <v>11</v>
+      </c>
+      <c r="N2" t="str">
+        <v>7</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2</v>
+      </c>
+      <c r="P2" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>100</v>
+      </c>
+      <c r="R2" t="str">
+        <v>7</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/cot_punti#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -48941,6 +51895,1326 @@
       </c>
       <c r="S2" t="str">
         <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/bubon/alue_bakong#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet320.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Gampong Baro Kb</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>61</v>
+      </c>
+      <c r="H2" t="str">
+        <v>56</v>
+      </c>
+      <c r="I2" t="str">
+        <v>91.8 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>56</v>
+      </c>
+      <c r="K2" t="str">
+        <v>0</v>
+      </c>
+      <c r="L2" t="str">
+        <v>56</v>
+      </c>
+      <c r="M2" t="str">
+        <v>1</v>
+      </c>
+      <c r="N2" t="str">
+        <v>1</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2</v>
+      </c>
+      <c r="P2" t="str">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>40</v>
+      </c>
+      <c r="R2" t="str">
+        <v>0</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/gampong_baro_kb#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet321.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Gampong Baro Wt</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>69</v>
+      </c>
+      <c r="H2" t="str">
+        <v>64</v>
+      </c>
+      <c r="I2" t="str">
+        <v>92.8 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>64</v>
+      </c>
+      <c r="K2" t="str">
+        <v>0</v>
+      </c>
+      <c r="L2" t="str">
+        <v>64</v>
+      </c>
+      <c r="M2" t="str">
+        <v>1</v>
+      </c>
+      <c r="N2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>62</v>
+      </c>
+      <c r="R2" t="str">
+        <v>1</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/gampong_baro_wt#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet322.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Gunong Panyang</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>40</v>
+      </c>
+      <c r="H2" t="str">
+        <v>37</v>
+      </c>
+      <c r="I2" t="str">
+        <v>92.5 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>37</v>
+      </c>
+      <c r="K2" t="str">
+        <v>0</v>
+      </c>
+      <c r="L2" t="str">
+        <v>37</v>
+      </c>
+      <c r="M2" t="str">
+        <v>2</v>
+      </c>
+      <c r="N2" t="str">
+        <v>3</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>28</v>
+      </c>
+      <c r="R2" t="str">
+        <v>2</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/gunong_panyang#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet323.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Kubu Capang</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>107</v>
+      </c>
+      <c r="H2" t="str">
+        <v>99</v>
+      </c>
+      <c r="I2" t="str">
+        <v>92.5 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>97</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2</v>
+      </c>
+      <c r="L2" t="str">
+        <v>99</v>
+      </c>
+      <c r="M2" t="str">
+        <v>5</v>
+      </c>
+      <c r="N2" t="str">
+        <v>3</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>73</v>
+      </c>
+      <c r="R2" t="str">
+        <v>14</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/kubu_capang#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet324.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Leubok Panyang</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>104</v>
+      </c>
+      <c r="H2" t="str">
+        <v>92</v>
+      </c>
+      <c r="I2" t="str">
+        <v>88.5 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>91</v>
+      </c>
+      <c r="K2" t="str">
+        <v>1</v>
+      </c>
+      <c r="L2" t="str">
+        <v>92</v>
+      </c>
+      <c r="M2" t="str">
+        <v>3</v>
+      </c>
+      <c r="N2" t="str">
+        <v>6</v>
+      </c>
+      <c r="O2" t="str">
+        <v>1</v>
+      </c>
+      <c r="P2" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>66</v>
+      </c>
+      <c r="R2" t="str">
+        <v>12</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/leubok_panyang#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet325.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Pasi Ara Wt</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>170</v>
+      </c>
+      <c r="H2" t="str">
+        <v>146</v>
+      </c>
+      <c r="I2" t="str">
+        <v>85.9 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>138</v>
+      </c>
+      <c r="K2" t="str">
+        <v>8</v>
+      </c>
+      <c r="L2" t="str">
+        <v>146</v>
+      </c>
+      <c r="M2" t="str">
+        <v>7</v>
+      </c>
+      <c r="N2" t="str">
+        <v>18</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2</v>
+      </c>
+      <c r="P2" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>93</v>
+      </c>
+      <c r="R2" t="str">
+        <v>14</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/pasi_ara_wt#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet326.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Pasi Janeng</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>377</v>
+      </c>
+      <c r="H2" t="str">
+        <v>344</v>
+      </c>
+      <c r="I2" t="str">
+        <v>91.2 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>334</v>
+      </c>
+      <c r="K2" t="str">
+        <v>10</v>
+      </c>
+      <c r="L2" t="str">
+        <v>344</v>
+      </c>
+      <c r="M2" t="str">
+        <v>36</v>
+      </c>
+      <c r="N2" t="str">
+        <v>33</v>
+      </c>
+      <c r="O2" t="str">
+        <v>1</v>
+      </c>
+      <c r="P2" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>223</v>
+      </c>
+      <c r="R2" t="str">
+        <v>40</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/pasi_janeng#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet327.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Paya Baro</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>245</v>
+      </c>
+      <c r="H2" t="str">
+        <v>227</v>
+      </c>
+      <c r="I2" t="str">
+        <v>92.7 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>225</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2</v>
+      </c>
+      <c r="L2" t="str">
+        <v>227</v>
+      </c>
+      <c r="M2" t="str">
+        <v>43</v>
+      </c>
+      <c r="N2" t="str">
+        <v>37</v>
+      </c>
+      <c r="O2" t="str">
+        <v>1</v>
+      </c>
+      <c r="P2" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>67</v>
+      </c>
+      <c r="R2" t="str">
+        <v>77</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/paya_baro#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet328.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Paya Meugeundrang</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>130</v>
+      </c>
+      <c r="H2" t="str">
+        <v>115</v>
+      </c>
+      <c r="I2" t="str">
+        <v>88.5 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>114</v>
+      </c>
+      <c r="K2" t="str">
+        <v>1</v>
+      </c>
+      <c r="L2" t="str">
+        <v>115</v>
+      </c>
+      <c r="M2" t="str">
+        <v>7</v>
+      </c>
+      <c r="N2" t="str">
+        <v>14</v>
+      </c>
+      <c r="O2" t="str">
+        <v>1</v>
+      </c>
+      <c r="P2" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>70</v>
+      </c>
+      <c r="R2" t="str">
+        <v>19</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/paya_meugeundrang#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet329.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Rambong</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>121</v>
+      </c>
+      <c r="H2" t="str">
+        <v>116</v>
+      </c>
+      <c r="I2" t="str">
+        <v>95.9 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>112</v>
+      </c>
+      <c r="K2" t="str">
+        <v>4</v>
+      </c>
+      <c r="L2" t="str">
+        <v>116</v>
+      </c>
+      <c r="M2" t="str">
+        <v>11</v>
+      </c>
+      <c r="N2" t="str">
+        <v>10</v>
+      </c>
+      <c r="O2" t="str">
+        <v>3</v>
+      </c>
+      <c r="P2" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>69</v>
+      </c>
+      <c r="R2" t="str">
+        <v>16</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/rambong#</v>
       </c>
     </row>
   </sheetData>
@@ -49082,6 +53356,798 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet330.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Rambong Pinto</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>60</v>
+      </c>
+      <c r="H2" t="str">
+        <v>58</v>
+      </c>
+      <c r="I2" t="str">
+        <v>96.7 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>56</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2</v>
+      </c>
+      <c r="L2" t="str">
+        <v>58</v>
+      </c>
+      <c r="M2" t="str">
+        <v>3</v>
+      </c>
+      <c r="N2" t="str">
+        <v>1</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2</v>
+      </c>
+      <c r="P2" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>36</v>
+      </c>
+      <c r="R2" t="str">
+        <v>13</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/rambong_pinto#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet331.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Seuneubok Dalam</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>42</v>
+      </c>
+      <c r="H2" t="str">
+        <v>42</v>
+      </c>
+      <c r="I2" t="str">
+        <v>100.0 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>42</v>
+      </c>
+      <c r="K2" t="str">
+        <v>0</v>
+      </c>
+      <c r="L2" t="str">
+        <v>42</v>
+      </c>
+      <c r="M2" t="str">
+        <v>9</v>
+      </c>
+      <c r="N2" t="str">
+        <v>2</v>
+      </c>
+      <c r="O2" t="str">
+        <v>1</v>
+      </c>
+      <c r="P2" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>27</v>
+      </c>
+      <c r="R2" t="str">
+        <v>0</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/seuneubok_dalam#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet332.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Seuradeuk</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>208</v>
+      </c>
+      <c r="H2" t="str">
+        <v>183</v>
+      </c>
+      <c r="I2" t="str">
+        <v>88.0 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>182</v>
+      </c>
+      <c r="K2" t="str">
+        <v>1</v>
+      </c>
+      <c r="L2" t="str">
+        <v>183</v>
+      </c>
+      <c r="M2" t="str">
+        <v>14</v>
+      </c>
+      <c r="N2" t="str">
+        <v>22</v>
+      </c>
+      <c r="O2" t="str">
+        <v>4</v>
+      </c>
+      <c r="P2" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>65</v>
+      </c>
+      <c r="R2" t="str">
+        <v>75</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/seuradeuk#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet333.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Tangkeh</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>300</v>
+      </c>
+      <c r="H2" t="str">
+        <v>256</v>
+      </c>
+      <c r="I2" t="str">
+        <v>85.3 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>244</v>
+      </c>
+      <c r="K2" t="str">
+        <v>12</v>
+      </c>
+      <c r="L2" t="str">
+        <v>256</v>
+      </c>
+      <c r="M2" t="str">
+        <v>22</v>
+      </c>
+      <c r="N2" t="str">
+        <v>26</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2</v>
+      </c>
+      <c r="P2" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>159</v>
+      </c>
+      <c r="R2" t="str">
+        <v>31</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/tangkeh#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet334.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Teumiket Ranom</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>134</v>
+      </c>
+      <c r="H2" t="str">
+        <v>124</v>
+      </c>
+      <c r="I2" t="str">
+        <v>92.5 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>122</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2</v>
+      </c>
+      <c r="L2" t="str">
+        <v>124</v>
+      </c>
+      <c r="M2" t="str">
+        <v>3</v>
+      </c>
+      <c r="N2" t="str">
+        <v>15</v>
+      </c>
+      <c r="O2" t="str">
+        <v>5</v>
+      </c>
+      <c r="P2" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>82</v>
+      </c>
+      <c r="R2" t="str">
+        <v>15</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/teumiket_ranom#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet335.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PILKADA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>LEVEL</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KABUPATEN/KOTA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>KECAMATAN</v>
+      </c>
+      <c r="E1" t="str">
+        <v>KELURAHAN</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TPS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PEMILIH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PENGGUNA_HAK</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PARTISIPASI</v>
+      </c>
+      <c r="J1" t="str">
+        <v>SUARA_SAH</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SUARA_TIDAK_SAH</v>
+      </c>
+      <c r="L1" t="str">
+        <v>TOTAL_SUARA</v>
+      </c>
+      <c r="M1" t="str">
+        <v>HASIL_1</v>
+      </c>
+      <c r="N1" t="str">
+        <v>HASIL_2</v>
+      </c>
+      <c r="O1" t="str">
+        <v>HASIL_3</v>
+      </c>
+      <c r="P1" t="str">
+        <v>HASIL_4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>HASIL_5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>HASIL_6</v>
+      </c>
+      <c r="S1" t="str">
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PILKADA PROVINSI ACEH</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NO TPS</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aceh Barat</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Woyla Timur</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Tuwi Eumpeuk</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TPS 1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>87</v>
+      </c>
+      <c r="H2" t="str">
+        <v>82</v>
+      </c>
+      <c r="I2" t="str">
+        <v>94.3 %</v>
+      </c>
+      <c r="J2" t="str">
+        <v>81</v>
+      </c>
+      <c r="K2" t="str">
+        <v>1</v>
+      </c>
+      <c r="L2" t="str">
+        <v>82</v>
+      </c>
+      <c r="M2" t="str">
+        <v>8</v>
+      </c>
+      <c r="N2" t="str">
+        <v>5</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2</v>
+      </c>
+      <c r="P2" t="str">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>50</v>
+      </c>
+      <c r="R2" t="str">
+        <v>4</v>
+      </c>
+      <c r="S2" t="str">
+        <v>https://pilkada2017.kpu.go.id/hasil/t1/aceh/aceh_barat/woyla_timur/tuwi_eumpeuk#</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
